--- a/output/1Y_P72_1VAL-D.xlsx
+++ b/output/1Y_P72_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>544.8878999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.126700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.3524</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.126700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E3" s="1">
+        <v>544.8878999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G3" s="1">
-        <v>1107.0867</v>
-      </c>
       <c r="H3" s="1">
-        <v>19590.0105</v>
+        <v>9641.8452</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0654</v>
+        <v>9641.8452</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.3524</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19590.0105</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.018</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E4" s="1">
+        <v>1107.0867</v>
+      </c>
       <c r="F4" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G4" s="1">
-        <v>1658.753</v>
-      </c>
       <c r="H4" s="1">
-        <v>29912.1277</v>
+        <v>19963.9844</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0859</v>
+        <v>19963.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29912.1277</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0109</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E5" s="1">
+        <v>1658.753</v>
+      </c>
       <c r="F5" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G5" s="1">
-        <v>2217.984</v>
-      </c>
       <c r="H5" s="1">
-        <v>39455.7172</v>
+        <v>29507.5579</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0344</v>
+        <v>29507.5579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39455.7172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E6" s="1">
+        <v>2217.984</v>
+      </c>
       <c r="F6" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G6" s="1">
-        <v>2776.9024</v>
-      </c>
       <c r="H6" s="1">
-        <v>49426.0853</v>
+        <v>39477.897</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0057</v>
+        <v>39477.897</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49426.0853</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E7" s="1">
+        <v>2776.9024</v>
+      </c>
       <c r="F7" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G7" s="1">
-        <v>3392.1318</v>
-      </c>
       <c r="H7" s="1">
-        <v>54850.0921</v>
+        <v>44901.9559</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.688</v>
+        <v>44901.9559</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.0057</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>1249.6061</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8750.393899999999</v>
+        <v>998.0928</v>
       </c>
       <c r="O7" s="1">
-        <v>1249.6061</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56099.6982</v>
+        <v>-9001.9072</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.056</v>
+        <v>-0.0925</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E8" s="1">
+        <v>3392.1318</v>
+      </c>
       <c r="F8" s="1">
-        <v>660.5198</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4052.6516</v>
+        <v>657.8075</v>
       </c>
       <c r="H8" s="1">
-        <v>62308.3021</v>
+        <v>52153.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>70208.2677</v>
+        <v>998.0928</v>
       </c>
       <c r="J8" s="1">
-        <v>17.324</v>
+        <v>53151.1009</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60166.3488</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.737</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1041.3384</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>63349.6405</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0416</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E9" s="1">
+        <v>4049.9392</v>
+      </c>
       <c r="F9" s="1">
-        <v>653.6094000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4706.261</v>
+        <v>650.9254</v>
       </c>
       <c r="H9" s="1">
-        <v>73122.5886</v>
+        <v>62925.1209</v>
       </c>
       <c r="I9" s="1">
-        <v>80416.53539999999</v>
+        <v>831.744</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0871</v>
+        <v>63756.8649</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70332.6976</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3664</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>833.0707</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>73955.6593</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0083</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E10" s="1">
+        <v>4700.8647</v>
+      </c>
       <c r="F10" s="1">
-        <v>635.9261</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5342.1871</v>
+        <v>633.3148</v>
       </c>
       <c r="H10" s="1">
-        <v>85310.9884</v>
+        <v>75069.5183</v>
       </c>
       <c r="I10" s="1">
-        <v>90624.803</v>
+        <v>665.3952</v>
       </c>
       <c r="J10" s="1">
-        <v>16.964</v>
+        <v>75734.9135</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80499.04640000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.1243</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>624.803</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>85935.7914</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0236</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E11" s="1">
+        <v>5334.1795</v>
+      </c>
       <c r="F11" s="1">
-        <v>647.8889</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5990.076</v>
+        <v>645.2285000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>93891.4467</v>
+        <v>83610.5958</v>
       </c>
       <c r="I11" s="1">
-        <v>100833.0707</v>
+        <v>499.0464</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8334</v>
+        <v>84109.6422</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90665.3952</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9971</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>416.5354</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>94307.98209999999</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E12" s="1">
+        <v>5979.4079</v>
+      </c>
       <c r="F12" s="1">
-        <v>664.5791</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6654.6552</v>
+        <v>661.8501</v>
       </c>
       <c r="H12" s="1">
-        <v>101688.4545</v>
+        <v>91370.1366</v>
       </c>
       <c r="I12" s="1">
-        <v>111041.3384</v>
+        <v>332.6976</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6863</v>
+        <v>91702.8342</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100831.744</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8632</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>208.2677</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101896.7222</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0231</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E13" s="1">
+        <v>6641.258</v>
+      </c>
       <c r="F13" s="1">
-        <v>668.0978</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7322.753</v>
+        <v>665.3544000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>111308.0423</v>
+        <v>100949.1146</v>
       </c>
       <c r="I13" s="1">
-        <v>121249.6061</v>
+        <v>166.3488</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5579</v>
+        <v>101115.4634</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.7134</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10208.2677</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>111308.0423</v>
+        <v>-10166.3488</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E14" s="1">
+        <v>7306.6124</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7322.753</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6641.258</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111954.1076</v>
       </c>
       <c r="I14" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5579</v>
+        <v>111954.1076</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1915</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112201.4182</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112201.4182</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112201.4182</v>
+        <v>101759.3481</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0751</v>
+        <v>0.0075</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.3524</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>544.8878999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.126700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.3524</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.126700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.7873</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>544.8878999999999</v>
       </c>
       <c r="F3" s="1">
         <v>562.1989</v>
       </c>
       <c r="G3" s="1">
-        <v>1107.0867</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19590.0105</v>
+        <v>9641.8452</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0654</v>
+        <v>9641.8452</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.3524</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19590.0105</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.018</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.1269</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1107.0867</v>
       </c>
       <c r="F4" s="1">
         <v>551.6663</v>
       </c>
       <c r="G4" s="1">
-        <v>1658.753</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29912.1277</v>
+        <v>19963.9844</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0859</v>
+        <v>19963.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29912.1277</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0109</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.8817</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1658.753</v>
       </c>
       <c r="F5" s="1">
         <v>559.2309</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.984</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39455.7172</v>
+        <v>29507.5579</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0344</v>
+        <v>29507.5579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39455.7172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.8917</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2217.984</v>
       </c>
       <c r="F6" s="1">
         <v>558.9184</v>
       </c>
       <c r="G6" s="1">
-        <v>2776.9024</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49426.0853</v>
+        <v>39477.897</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0057</v>
+        <v>39477.897</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49426.0853</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.2541</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2776.9024</v>
       </c>
       <c r="F7" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3392.1318</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>54850.0921</v>
+        <v>44901.9559</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.688</v>
+        <v>44901.9559</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.0057</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>1249.6061</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8750.393899999999</v>
+        <v>998.0928</v>
       </c>
       <c r="O7" s="1">
-        <v>1249.6061</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56099.6982</v>
+        <v>-9001.9072</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.056</v>
+        <v>-0.0925</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.4549</v>
       </c>
       <c r="E8" s="1">
+        <v>3392.1318</v>
+      </c>
+      <c r="F8" s="1">
+        <v>711.625</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>727.899</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4120.0307</v>
-      </c>
       <c r="H8" s="1">
-        <v>63344.2367</v>
+        <v>52153.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>71249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2935</v>
+        <v>53151.1009</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60998.0928</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9822</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11249.6061</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>63344.2367</v>
+        <v>-10998.0928</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0417</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.6183</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4103.7567</v>
       </c>
       <c r="F9" s="1">
         <v>640.2745</v>
       </c>
       <c r="G9" s="1">
-        <v>4760.3053</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73962.29150000001</v>
+        <v>63761.2994</v>
       </c>
       <c r="I9" s="1">
-        <v>81249.6061</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0682</v>
+        <v>63761.2994</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70998.0928</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3008</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73962.29150000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.0526</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4744.0313</v>
       </c>
       <c r="F10" s="1">
         <v>622.952</v>
       </c>
       <c r="G10" s="1">
-        <v>5383.2573</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>85966.8514</v>
+        <v>75758.8587</v>
       </c>
       <c r="I10" s="1">
-        <v>91249.6061</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9506</v>
+        <v>75758.8587</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80998.0928</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0737</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85966.8514</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0239</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.7562</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5366.9833</v>
       </c>
       <c r="F11" s="1">
         <v>634.6708</v>
       </c>
       <c r="G11" s="1">
-        <v>6017.9281</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94328.01459999999</v>
+        <v>84124.7801</v>
       </c>
       <c r="I11" s="1">
-        <v>101249.6061</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8247</v>
+        <v>84124.7801</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90998.0928</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9552</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94328.01459999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0171</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.3605</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6001.6541</v>
       </c>
       <c r="F12" s="1">
         <v>651.0205</v>
       </c>
       <c r="G12" s="1">
-        <v>6668.9486</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101906.8699</v>
+        <v>91710.0763</v>
       </c>
       <c r="I12" s="1">
-        <v>111249.6061</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6817</v>
+        <v>91710.0763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100998.0928</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101906.8699</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0232</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.2796</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6652.6746</v>
       </c>
       <c r="F13" s="1">
         <v>654.4674</v>
       </c>
       <c r="G13" s="1">
-        <v>7323.416</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111318.1203</v>
+        <v>101122.6497</v>
       </c>
       <c r="I13" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5564</v>
+        <v>101122.6497</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6847</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111318.1203</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.4022</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7307.142</v>
       </c>
       <c r="F14" s="1">
-        <v>-7323.416</v>
+        <v>-7307.142</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111962.2217</v>
       </c>
       <c r="I14" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5564</v>
+        <v>111962.2217</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112211.5771</v>
+        <v>111962.2217</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0751</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.3524</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>544.8878999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.126700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.3524</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.126700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.7873</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>544.8878999999999</v>
       </c>
       <c r="F3" s="1">
         <v>562.1989</v>
       </c>
       <c r="G3" s="1">
-        <v>1107.0867</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19590.0105</v>
+        <v>9641.8452</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0654</v>
+        <v>9641.8452</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.3524</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19590.0105</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.018</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.1269</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1107.0867</v>
       </c>
       <c r="F4" s="1">
         <v>551.6663</v>
       </c>
       <c r="G4" s="1">
-        <v>1658.753</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29912.1277</v>
+        <v>19963.9844</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0859</v>
+        <v>19963.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29912.1277</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0109</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.8817</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1658.753</v>
       </c>
       <c r="F5" s="1">
         <v>559.2309</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.984</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39455.7172</v>
+        <v>29507.5579</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0344</v>
+        <v>29507.5579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39455.7172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.8917</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2217.984</v>
       </c>
       <c r="F6" s="1">
         <v>558.9184</v>
       </c>
       <c r="G6" s="1">
-        <v>2776.9024</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49426.0853</v>
+        <v>39477.897</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0057</v>
+        <v>39477.897</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49426.0853</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.2541</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2776.9024</v>
       </c>
       <c r="F7" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3392.1318</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>54850.0921</v>
+        <v>44901.9559</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.688</v>
+        <v>44901.9559</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.0057</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>1249.6061</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8750.393899999999</v>
+        <v>998.0928</v>
       </c>
       <c r="O7" s="1">
-        <v>1249.6061</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56099.6982</v>
+        <v>-9001.9072</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.056</v>
+        <v>-0.0925</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.4549</v>
       </c>
       <c r="E8" s="1">
+        <v>3392.1318</v>
+      </c>
+      <c r="F8" s="1">
+        <v>711.625</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>727.899</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4120.0307</v>
-      </c>
       <c r="H8" s="1">
-        <v>63344.2367</v>
+        <v>52153.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>71249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2935</v>
+        <v>53151.1009</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60998.0928</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9822</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11249.6061</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>63344.2367</v>
+        <v>-10998.0928</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0417</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.6183</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4103.7567</v>
       </c>
       <c r="F9" s="1">
         <v>640.2745</v>
       </c>
       <c r="G9" s="1">
-        <v>4760.3053</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73962.29150000001</v>
+        <v>63761.2994</v>
       </c>
       <c r="I9" s="1">
-        <v>81249.6061</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0682</v>
+        <v>63761.2994</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70998.0928</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3008</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73962.29150000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.0526</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4744.0313</v>
       </c>
       <c r="F10" s="1">
         <v>622.952</v>
       </c>
       <c r="G10" s="1">
-        <v>5383.2573</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85966.8514</v>
+        <v>75758.8587</v>
       </c>
       <c r="I10" s="1">
-        <v>91249.6061</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9506</v>
+        <v>75758.8587</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80998.0928</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0737</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85966.8514</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0239</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.7562</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5366.9833</v>
       </c>
       <c r="F11" s="1">
         <v>634.6708</v>
       </c>
       <c r="G11" s="1">
-        <v>6017.9281</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94328.01459999999</v>
+        <v>84124.7801</v>
       </c>
       <c r="I11" s="1">
-        <v>101249.6061</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8247</v>
+        <v>84124.7801</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90998.0928</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9552</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94328.01459999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0171</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.3605</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6001.6541</v>
       </c>
       <c r="F12" s="1">
         <v>651.0205</v>
       </c>
       <c r="G12" s="1">
-        <v>6668.9486</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101906.8699</v>
+        <v>91710.0763</v>
       </c>
       <c r="I12" s="1">
-        <v>111249.6061</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6817</v>
+        <v>91710.0763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100998.0928</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101906.8699</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0232</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.2796</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6652.6746</v>
       </c>
       <c r="F13" s="1">
         <v>654.4674</v>
       </c>
       <c r="G13" s="1">
-        <v>7323.416</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111318.1203</v>
+        <v>101122.6497</v>
       </c>
       <c r="I13" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5564</v>
+        <v>101122.6497</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6847</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111318.1203</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.4022</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7307.142</v>
       </c>
       <c r="F14" s="1">
-        <v>-7323.416</v>
+        <v>-7307.142</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111962.2217</v>
       </c>
       <c r="I14" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5564</v>
+        <v>111962.2217</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112211.5771</v>
+        <v>111962.2217</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0751</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.3524</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>544.8878999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.126700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.3524</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.126700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.7873</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>544.8878999999999</v>
       </c>
       <c r="F3" s="1">
         <v>562.1989</v>
       </c>
       <c r="G3" s="1">
-        <v>1107.0867</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19590.0105</v>
+        <v>9641.8452</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0654</v>
+        <v>9641.8452</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.3524</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19590.0105</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.018</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.1269</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1107.0867</v>
       </c>
       <c r="F4" s="1">
         <v>551.6663</v>
       </c>
       <c r="G4" s="1">
-        <v>1658.753</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29912.1277</v>
+        <v>19963.9844</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0859</v>
+        <v>19963.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29912.1277</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0109</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.8817</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1658.753</v>
       </c>
       <c r="F5" s="1">
         <v>559.2309</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.984</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39455.7172</v>
+        <v>29507.5579</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0344</v>
+        <v>29507.5579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39455.7172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.8917</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2217.984</v>
       </c>
       <c r="F6" s="1">
         <v>558.9184</v>
       </c>
       <c r="G6" s="1">
-        <v>2776.9024</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49426.0853</v>
+        <v>39477.897</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0057</v>
+        <v>39477.897</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49426.0853</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.2541</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2776.9024</v>
       </c>
       <c r="F7" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3392.1318</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>54850.0921</v>
+        <v>44901.9559</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.688</v>
+        <v>44901.9559</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.0057</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>1249.6061</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8750.393899999999</v>
+        <v>998.0928</v>
       </c>
       <c r="O7" s="1">
-        <v>1249.6061</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56099.6982</v>
+        <v>-9001.9072</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.056</v>
+        <v>-0.0925</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.4549</v>
       </c>
       <c r="E8" s="1">
+        <v>3392.1318</v>
+      </c>
+      <c r="F8" s="1">
+        <v>711.625</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>727.899</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4120.0307</v>
-      </c>
       <c r="H8" s="1">
-        <v>63344.2367</v>
+        <v>52153.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>71249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2935</v>
+        <v>53151.1009</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60998.0928</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9822</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11249.6061</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>63344.2367</v>
+        <v>-10998.0928</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0417</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.6183</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4103.7567</v>
       </c>
       <c r="F9" s="1">
         <v>640.2745</v>
       </c>
       <c r="G9" s="1">
-        <v>4760.3053</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73962.29150000001</v>
+        <v>63761.2994</v>
       </c>
       <c r="I9" s="1">
-        <v>81249.6061</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0682</v>
+        <v>63761.2994</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70998.0928</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3008</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73962.29150000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.0526</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4744.0313</v>
       </c>
       <c r="F10" s="1">
         <v>622.952</v>
       </c>
       <c r="G10" s="1">
-        <v>5383.2573</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85966.8514</v>
+        <v>75758.8587</v>
       </c>
       <c r="I10" s="1">
-        <v>91249.6061</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9506</v>
+        <v>75758.8587</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80998.0928</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0737</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85966.8514</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0239</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.7562</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5366.9833</v>
       </c>
       <c r="F11" s="1">
         <v>634.6708</v>
       </c>
       <c r="G11" s="1">
-        <v>6017.9281</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94328.01459999999</v>
+        <v>84124.7801</v>
       </c>
       <c r="I11" s="1">
-        <v>101249.6061</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8247</v>
+        <v>84124.7801</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90998.0928</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9552</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94328.01459999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0171</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.3605</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6001.6541</v>
       </c>
       <c r="F12" s="1">
         <v>651.0205</v>
       </c>
       <c r="G12" s="1">
-        <v>6668.9486</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101906.8699</v>
+        <v>91710.0763</v>
       </c>
       <c r="I12" s="1">
-        <v>111249.6061</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6817</v>
+        <v>91710.0763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100998.0928</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101906.8699</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0232</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.2796</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6652.6746</v>
       </c>
       <c r="F13" s="1">
         <v>654.4674</v>
       </c>
       <c r="G13" s="1">
-        <v>7323.416</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111318.1203</v>
+        <v>101122.6497</v>
       </c>
       <c r="I13" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5564</v>
+        <v>101122.6497</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6847</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111318.1203</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.4022</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7307.142</v>
       </c>
       <c r="F14" s="1">
-        <v>-7323.416</v>
+        <v>-7307.142</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111962.2217</v>
       </c>
       <c r="I14" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5564</v>
+        <v>111962.2217</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112211.5771</v>
+        <v>111962.2217</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0751</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.3524</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>544.8878999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.126700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.3524</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.126700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.7873</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>544.8878999999999</v>
       </c>
       <c r="F3" s="1">
         <v>562.1989</v>
       </c>
       <c r="G3" s="1">
-        <v>1107.0867</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19590.0105</v>
+        <v>9641.8452</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0654</v>
+        <v>9641.8452</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.3524</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19590.0105</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.018</v>
+        <v>-0.0358</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.1269</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1107.0867</v>
       </c>
       <c r="F4" s="1">
         <v>551.6663</v>
       </c>
       <c r="G4" s="1">
-        <v>1658.753</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29912.1277</v>
+        <v>19963.9844</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0859</v>
+        <v>19963.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29912.1277</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0109</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.8817</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1658.753</v>
       </c>
       <c r="F5" s="1">
         <v>559.2309</v>
       </c>
       <c r="G5" s="1">
-        <v>2217.984</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39455.7172</v>
+        <v>29507.5579</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0344</v>
+        <v>29507.5579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0859</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39455.7172</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.8917</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2217.984</v>
       </c>
       <c r="F6" s="1">
         <v>558.9184</v>
       </c>
       <c r="G6" s="1">
-        <v>2776.9024</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49426.0853</v>
+        <v>39477.897</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.0057</v>
+        <v>39477.897</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49426.0853</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.2541</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2776.9024</v>
       </c>
       <c r="F7" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3392.1318</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>54850.0921</v>
+        <v>44901.9559</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.688</v>
+        <v>44901.9559</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18.0057</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="L7" s="1">
-        <v>1249.6061</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8750.393899999999</v>
+        <v>998.0928</v>
       </c>
       <c r="O7" s="1">
-        <v>1249.6061</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>56099.6982</v>
+        <v>-9001.9072</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.056</v>
+        <v>-0.0925</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.4549</v>
       </c>
       <c r="E8" s="1">
+        <v>3392.1318</v>
+      </c>
+      <c r="F8" s="1">
+        <v>711.625</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>727.899</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4120.0307</v>
-      </c>
       <c r="H8" s="1">
-        <v>63344.2367</v>
+        <v>52153.0081</v>
       </c>
       <c r="I8" s="1">
-        <v>71249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="J8" s="1">
-        <v>17.2935</v>
+        <v>53151.1009</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60998.0928</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9822</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11249.6061</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>63344.2367</v>
+        <v>-10998.0928</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0417</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.6183</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4103.7567</v>
       </c>
       <c r="F9" s="1">
         <v>640.2745</v>
       </c>
       <c r="G9" s="1">
-        <v>4760.3053</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73962.29150000001</v>
+        <v>63761.2994</v>
       </c>
       <c r="I9" s="1">
-        <v>81249.6061</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.0682</v>
+        <v>63761.2994</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70998.0928</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3008</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73962.29150000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.008399999999999999</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.0526</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4744.0313</v>
       </c>
       <c r="F10" s="1">
         <v>622.952</v>
       </c>
       <c r="G10" s="1">
-        <v>5383.2573</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85966.8514</v>
+        <v>75758.8587</v>
       </c>
       <c r="I10" s="1">
-        <v>91249.6061</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9506</v>
+        <v>75758.8587</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80998.0928</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0737</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85966.8514</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0239</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.7562</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5366.9833</v>
       </c>
       <c r="F11" s="1">
         <v>634.6708</v>
       </c>
       <c r="G11" s="1">
-        <v>6017.9281</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94328.01459999999</v>
+        <v>84124.7801</v>
       </c>
       <c r="I11" s="1">
-        <v>101249.6061</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8247</v>
+        <v>84124.7801</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90998.0928</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.9552</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>94328.01459999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0171</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.3605</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6001.6541</v>
       </c>
       <c r="F12" s="1">
         <v>651.0205</v>
       </c>
       <c r="G12" s="1">
-        <v>6668.9486</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101906.8699</v>
+        <v>91710.0763</v>
       </c>
       <c r="I12" s="1">
-        <v>111249.6061</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6817</v>
+        <v>91710.0763</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100998.0928</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8284</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>101906.8699</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0232</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.2796</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6652.6746</v>
       </c>
       <c r="F13" s="1">
         <v>654.4674</v>
       </c>
       <c r="G13" s="1">
-        <v>7323.416</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111318.1203</v>
+        <v>101122.6497</v>
       </c>
       <c r="I13" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.5564</v>
+        <v>101122.6497</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6847</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111318.1203</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.4022</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7307.142</v>
       </c>
       <c r="F14" s="1">
-        <v>-7323.416</v>
+        <v>-7307.142</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111962.2217</v>
       </c>
       <c r="I14" s="1">
-        <v>121249.6061</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.5564</v>
+        <v>111962.2217</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110998.0928</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112211.5771</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112211.5771</v>
+        <v>111962.2217</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0751</v>
+        <v>0.0076</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.3607</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.5579</v>
+        <v>15.1915</v>
       </c>
       <c r="D3" s="1">
-        <v>16.5564</v>
+        <v>15.1904</v>
       </c>
       <c r="E3" s="1">
-        <v>16.5564</v>
+        <v>15.1904</v>
       </c>
       <c r="F3" s="1">
-        <v>16.5564</v>
+        <v>15.1904</v>
       </c>
       <c r="G3" s="1">
-        <v>16.5564</v>
+        <v>15.1904</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1678</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2052</v>
+        <v>-0.1661</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2051</v>
+        <v>-0.166</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2051</v>
+        <v>-0.166</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2051</v>
+        <v>-0.166</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2051</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1091</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0951</v>
+        <v>0.1047</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.1049</v>
       </c>
       <c r="E5" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.1049</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.1049</v>
       </c>
       <c r="G5" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.7251</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.3731</v>
+        <v>-1.7801</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.3664</v>
+        <v>-1.7763</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.3664</v>
+        <v>-1.7763</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.3664</v>
+        <v>-1.7763</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.3664</v>
+        <v>-1.7763</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1184</v>
+        <v>-0.269</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1178</v>
+        <v>-0.1214</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1178</v>
+        <v>-0.1214</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1178</v>
+        <v>-0.1214</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1178</v>
+        <v>-0.1214</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="D8" s="1">
-        <v>1249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="E8" s="1">
-        <v>1249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="F8" s="1">
-        <v>1249.6061</v>
+        <v>998.0928</v>
       </c>
       <c r="G8" s="1">
-        <v>1249.6061</v>
+        <v>998.0928</v>
       </c>
     </row>
   </sheetData>
